--- a/Excel to json Parser/Computer Science and Engineering.xlsx
+++ b/Excel to json Parser/Computer Science and Engineering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\cs\Excel to json Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14627C-7A4F-415A-B46C-DAEB4EEE0BFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6839C-0C44-4C53-94EF-4CD53B62DAA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBA114D7-4CEC-4708-B7AC-BE75426484DA}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>EEE 1202</t>
   </si>
   <si>
-    <t>Electrical Circuits -1 Lab (DC)</t>
-  </si>
-  <si>
     <t>CSC 2107</t>
   </si>
   <si>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>Diff Calculus &amp; Coordinate Geometry</t>
+  </si>
+  <si>
+    <t>Electrical Circuits -1  Lab (DC)</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FE5E32-8CD8-474A-A394-2DA84BB21553}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1225,7 +1225,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="18" spans="1:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="19" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="20" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="21" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="22" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="23" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="24" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="25" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="26" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="27" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="28" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>31</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="29" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="30" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="31" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="32" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="33" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="34" spans="1:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="35" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="36" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="37" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -1516,13 +1516,13 @@
     </row>
     <row r="38" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="39" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="40" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="41" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="42" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="43" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="44" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="45" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -1628,13 +1628,13 @@
     </row>
     <row r="46" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="47" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
@@ -1656,27 +1656,27 @@
     </row>
     <row r="48" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="50" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="51" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="52" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="53" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="54" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="55" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="1">
         <v>3</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="56" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="57" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="58" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="59" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="60" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="61" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="62" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="63" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -1880,13 +1880,13 @@
     </row>
     <row r="64" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="65" spans="1:4" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="66" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="67" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="68" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="69" spans="1:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="70" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="71" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="72" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="73" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="74" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="75" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="76" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="77" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="78" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="79" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2104,13 +2104,13 @@
     </row>
     <row r="80" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="81" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="82" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="83" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="84" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C84" s="1">
         <v>100</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="85" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="86" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C86" s="1">
         <v>139</v>
